--- a/info/metricas/NN/RELU/NN1.xlsx
+++ b/info/metricas/NN/RELU/NN1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7715777935656103</v>
+        <v>-0.01609562113373486</v>
       </c>
       <c r="C2" t="n">
-        <v>85081.52700106175</v>
+        <v>377397.2479085573</v>
       </c>
       <c r="D2" t="n">
-        <v>184.549336109827</v>
+        <v>453.9221646120565</v>
       </c>
       <c r="E2" t="n">
-        <v>113.2451751708984</v>
+        <v>395.31</v>
       </c>
       <c r="F2" t="n">
-        <v>4690690.475903473</v>
+        <v>2307740.284887695</v>
       </c>
       <c r="G2" t="n">
-        <v>3029.43873046875</v>
+        <v>2288.968385009766</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7715835131989321</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.024931456592734e+16</v>
+        <v>3.569199044963992e+17</v>
       </c>
       <c r="J2" t="n">
-        <v>-650315.4316563456</v>
+        <v>-137974.3035127501</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5185621907856401</v>
+        <v>0.1598896697163669</v>
       </c>
       <c r="C3" t="n">
-        <v>563521.7249945742</v>
+        <v>312910.8754041394</v>
       </c>
       <c r="D3" t="n">
-        <v>461.9427501645418</v>
+        <v>333.1826914843567</v>
       </c>
       <c r="E3" t="n">
-        <v>184.0454928588867</v>
+        <v>146.7100811767578</v>
       </c>
       <c r="F3" t="n">
-        <v>11741198.88093216</v>
+        <v>1693900.80350647</v>
       </c>
       <c r="G3" t="n">
-        <v>2684.685492858887</v>
+        <v>2266.242366943359</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01572587820549631</v>
+        <v>0.3016512726476956</v>
       </c>
       <c r="I3" t="n">
-        <v>2.282599907863219e+16</v>
+        <v>8.766763748234237e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>734922.1677471997</v>
+        <v>2643.76136852942</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1586982880423768</v>
+      </c>
+      <c r="C4" t="n">
+        <v>313554.3893245375</v>
+      </c>
+      <c r="D4" t="n">
+        <v>333.3510502602903</v>
+      </c>
+      <c r="E4" t="n">
+        <v>143.6175653076172</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1694756.739523316</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2264.544661865235</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.305813371745068</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.325336787613803e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5038.987534465954</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7823879583403469</v>
+      </c>
+      <c r="C5" t="n">
+        <v>79231.4286226102</v>
+      </c>
+      <c r="D5" t="n">
+        <v>182.7651124238405</v>
+      </c>
+      <c r="E5" t="n">
+        <v>111.0153088378905</v>
+      </c>
+      <c r="F5" t="n">
+        <v>929177.8315628052</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2728.07849609375</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.782408336019064</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.156754281056518e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-139740.2731054779</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.16038664558146</v>
+      </c>
+      <c r="C6" t="n">
+        <v>312018.4957314157</v>
+      </c>
+      <c r="D6" t="n">
+        <v>329.0028236932208</v>
+      </c>
+      <c r="E6" t="n">
+        <v>144.447529296875</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1672321.352832641</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2248.082470703125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.296085618834516</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.218057428022138e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>674.4032757010175</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1651152223168816</v>
+      </c>
+      <c r="C7" t="n">
+        <v>305264.9388162842</v>
+      </c>
+      <c r="D7" t="n">
+        <v>328.8308339428043</v>
+      </c>
+      <c r="E7" t="n">
+        <v>143.4191589355469</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1671447.128931274</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2269.805865478515</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3036873269137204</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.727413664583762e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-2243.324112505049</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7673964824991639</v>
+      </c>
+      <c r="C8" t="n">
+        <v>85705.99461719405</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.4029959982857</v>
+      </c>
+      <c r="E8" t="n">
+        <v>114.0043365478516</v>
+      </c>
+      <c r="F8" t="n">
+        <v>952569.4286592865</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2852.9491796875</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7676253922574569</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.102926054731822e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-128826.3924584161</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7708612889745788</v>
+      </c>
+      <c r="C9" t="n">
+        <v>83411.57748972578</v>
+      </c>
+      <c r="D9" t="n">
+        <v>185.0072980153145</v>
+      </c>
+      <c r="E9" t="n">
+        <v>109.1702117919922</v>
+      </c>
+      <c r="F9" t="n">
+        <v>940392.0958118439</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2638.93603515625</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7711469403285125</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.337912222792803e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-143554.451002967</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7825105039542524</v>
+      </c>
+      <c r="C10" t="n">
+        <v>84547.44669915235</v>
+      </c>
+      <c r="D10" t="n">
+        <v>187.7822642725273</v>
+      </c>
+      <c r="E10" t="n">
+        <v>118.6438610839844</v>
+      </c>
+      <c r="F10" t="n">
+        <v>954497.2492972565</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3186.405869140625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7825377032592393</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.76871983995306e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-130476.0161272356</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1512885190883435</v>
+      </c>
+      <c r="C11" t="n">
+        <v>320774.8230378113</v>
+      </c>
+      <c r="D11" t="n">
+        <v>340.0882235224857</v>
+      </c>
+      <c r="E11" t="n">
+        <v>150.9278869628906</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1728668.440164795</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2287.770477294922</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3003355888449201</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.103430466586722e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11593.67917805675</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU1</t>
         </is>
